--- a/biology/Zoologie/Holconia_insignis/Holconia_insignis.xlsx
+++ b/biology/Zoologie/Holconia_insignis/Holconia_insignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holconia insignis est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holconia insignis est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud et au Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud et au Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Hirst en 1990 mesure 11,0 mm sur 10,9 mm et l'abdomen 11,0 mm de long sur 8,2 mm et la carapace  de la femelle mesure 14,3 mm de long sur 13,8 mm et l'abdomen 22,5 mm de long sur 14,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Hirst en 1990 mesure 11,0 mm sur 10,9 mm et l'abdomen 11,0 mm de long sur 8,2 mm et la carapace  de la femelle mesure 14,3 mm de long sur 13,8 mm et l'abdomen 22,5 mm de long sur 14,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thorell, 1870 : Araneae nonnullae Novae Hollandie, descriptae. Öfversigt af Königlich Vetenskaps - Akademiens Förhandlingar, vol. 27, p. 367-389.</t>
         </is>
